--- a/respostas.xlsx
+++ b/respostas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd5cf5184c8f2ccb/www/quiz2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/quizconasems2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{EE3FA5CF-BFE6-474F-9B42-0753853DDF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11EDC53-3F82-4B04-BBE6-E1E99ADC2E62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BECCAF-4E9F-F44A-AA5B-322E46B7FEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{884A597A-60C0-1841-9D91-A9822E6FC6EF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{884A597A-60C0-1841-9D91-A9822E6FC6EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Pergunta</t>
   </si>
@@ -53,41 +53,65 @@
     <t>Resposta Correta</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Porque o céu é azul?</t>
-  </si>
-  <si>
-    <t>Qual a cor do sol?</t>
-  </si>
-  <si>
-    <t>Efeito gravitacional</t>
-  </si>
-  <si>
-    <t>Camada de ozônio</t>
-  </si>
-  <si>
-    <t>Prisma de cores na atmosfera</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>Branco</t>
-  </si>
-  <si>
-    <t>Amarelo</t>
+    <t>Quais são os atributos essenciais da Atenção Primária à Saúde?</t>
+  </si>
+  <si>
+    <t>Atenção ao primeiro contato, Longitudinalidade, Integralidade e Coordenação do cuidado</t>
+  </si>
+  <si>
+    <t>Descentralização, Universalidade, Integralidade e Cuidado centrado na pessoa</t>
+  </si>
+  <si>
+    <t>Coordenação do cuidado, Longitudinalidade, Regionalização, Gestão do cuidado em rede</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marque a alternativa que não faz parte da estrutura e organização da UBS para a Atenção Nutricional </t>
+  </si>
+  <si>
+    <t>Estadiômetro/Antropômetro vertical adulto e infantil</t>
+  </si>
+  <si>
+    <t>Fita antropométrica</t>
+  </si>
+  <si>
+    <t>Pirâmide dos alimentos</t>
+  </si>
+  <si>
+    <t>Dentre os nove Princípios para a elaboração de ações de Educação Alimentar e Nutricional, marque a alternativa que contem pelo menos 3</t>
+  </si>
+  <si>
+    <t>Valorização da cultura alimentar local, Promoção de autocuidado e Sustentabilidade social, ambiental e econômica</t>
+  </si>
+  <si>
+    <t>Diversidade de cenários de prática, Sistema alimentar e sua integralidade e Avaliação de riscos de doenças crônicas</t>
+  </si>
+  <si>
+    <t>Promoção do autocuidado, Valorização da cultura alimentar e mapeamento de erros nos hábitos alimentares</t>
+  </si>
+  <si>
+    <t>Marque a alternativa incorreta dentre as vantagens de se ter um nutricionista na equipe multidisciplinar</t>
+  </si>
+  <si>
+    <t>Redução da necessidade de atenção especializada</t>
+  </si>
+  <si>
+    <t>Melhora na eficiência das ações de prevenção ás DCNT</t>
+  </si>
+  <si>
+    <t>Redução da promoção da alimentação adequada e saudável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +124,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +161,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,69 +492,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386EF6DC-FFAD-9842-9AE5-E53EA45864AB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" style="3" customWidth="1"/>
+    <col min="2" max="2" width="69.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
